--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51E2EEB-1BD3-4A61-935F-DC9A93736514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C0466-DCA9-4B63-90DD-6819F518FB77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -296,14 +296,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="4800"/>
-              <a:t>FP</a:t>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t># Floating Point Instructions</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="4800" baseline="0"/>
-              <a:t> INS for H-LU factorization</a:t>
+              <a:rPr lang="en-US" sz="3200" baseline="0"/>
+              <a:t> of </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>H-LU factorization</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="3200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -320,7 +324,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -722,20 +726,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -877,7 +867,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>FP INS</a:t>
+                  <a:t># Floating Point Instructions</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
@@ -4638,8 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC151" sqref="AC151"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C0466-DCA9-4B63-90DD-6819F518FB77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08561EA6-1219-4959-8208-3F498B695D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,12 +283,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -296,18 +293,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3200"/>
-              <a:t># Floating Point Instructions</a:t>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t># Floating Point Instructions &amp; Accuracy of H-LU factorization</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200" baseline="0"/>
-              <a:t> of </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200"/>
-              <a:t>H-LU factorization</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" sz="3200"/>
+            <a:endParaRPr lang="zh-CN" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -324,12 +313,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -344,37 +330,26 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>n log^2 n</c:v>
+            <c:v>O(n log^2 n) Reference</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -430,7 +405,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5B9B-4613-A2FB-B4EBE13C2141}"/>
@@ -441,31 +416,20 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>n log^3 n</c:v>
+            <c:v>O(n log^3 n) Reference</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -521,7 +485,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5B9B-4613-A2FB-B4EBE13C2141}"/>
@@ -532,10 +496,90 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>n^2</c:v>
+            <c:v>O(n^2) Reference</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$77:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>302651904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1210607616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4842430464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19369721856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77478887424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309915549696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0408-40A4-B087-D370BDF144C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Number FLOPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -547,104 +591,144 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="25400">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$77:$D$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>302651904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1210607616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4842430464</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19369721856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77478887424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309915549696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0408-40A4-B087-D370BDF144C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>actual</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="16"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2425241079607062E-2"/>
+                  <c:y val="-4.7117922804518125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-96B3-4AF8-9337-67ADCDEDD873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -699,7 +783,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0408-40A4-B087-D370BDF144C7}"/>
@@ -714,18 +798,375 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93514464"/>
-        <c:axId val="2064235152"/>
+        <c:axId val="299303424"/>
+        <c:axId val="299291360"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2473733352294497E-2"/>
+                  <c:y val="-4.1228182453953363E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-96B3-4AF8-9337-67ADCDEDD873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$29:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1383120000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8300000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4984140000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4681980000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5604570000000002E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40E3-43C6-9ED8-F67ECE05E41D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="450491216"/>
+        <c:axId val="450485392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93514464"/>
+        <c:axId val="299291360"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="512"/>
+          <c:min val="134217728"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Number Floating</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t> Point Operations (FLOPS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299303424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299303424"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -733,12 +1174,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -746,10 +1184,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>Matrix Dimension</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -766,12 +1204,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -783,19 +1218,18 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -804,12 +1238,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -819,33 +1250,20 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064235152"/>
+        <c:crossAx val="299291360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064235152"/>
+        <c:axId val="450485392"/>
         <c:scaling>
-          <c:logBase val="2"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="67108864"/>
+          <c:max val="1"/>
+          <c:min val="1.0000000000000008E-14"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -853,12 +1271,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -866,10 +1281,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t># Floating Point Instructions</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Accuracy | A - LU | (FP64)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -886,12 +1301,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -902,20 +1314,19 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -924,12 +1335,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -939,7 +1347,23 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93514464"/>
+        <c:crossAx val="450491216"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450491216"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450485392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -952,7 +1376,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -966,12 +1390,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -999,7 +1420,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1047,12 +1468,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1060,9 +1478,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="4800"/>
-              <a:t>GPU Kernel Time</a:t>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Pastel-Palettes (CPU + GPU) vs. HLIBpro (CPU only). H-LU Factorization Time</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1079,12 +1498,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1099,18 +1515,18 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>n</c:v>
+            <c:v>PSPL (CPU &amp; GPU Total)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1120,13 +1536,734 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5494982406789241E-3"/>
+                  <c:y val="-2.2634969471307737E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.982368000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.041054000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.98133899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343.41473400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>776.57318099999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1776.786621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-62A5-4FC9-AD65-1C0671AFD805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HLIBpro (DAG disabled)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4983274689298706E-3"/>
+                  <c:y val="-2.5652965400815405E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-62A5-4FC9-AD65-1C0671AFD805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HLIBpro (DAG enabled)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0989964813579723E-3"/>
+                  <c:y val="4.2251943013107723E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$29:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D81F-4B91-A12F-1162F7A19488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>O(n log^2 n) Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1160,48 +2297,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$85:$A$90</c:f>
+              <c:f>Sheet1!$A$93:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.982368000000001</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.964736000000002</c:v>
+                  <c:v>87.120000000000019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.929472</c:v>
+                  <c:v>207.35999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>279.85894400000001</c:v>
+                  <c:v>486.71999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559.71788800000002</c:v>
+                  <c:v>1128.9599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1119.435776</c:v>
+                  <c:v>2592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7617-47B1-8660-060924F74161}"/>
+              <c16:uniqueId val="{00000001-D81F-4B91-A12F-1162F7A19488}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>n log n</c:v>
+            <c:v>PSPL CPU Time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="50800" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1211,17 +2348,144 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="25400">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7986619751437974E-3"/>
+                  <c:y val="3.0179959295076893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -1251,64 +2515,195 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$85:$B$90</c:f>
+              <c:f>Sheet1!$M$20:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.982368000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.961209600000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.91536640000001</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>363.81662719999997</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>783.60504319999995</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1679.1536639999999</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7617-47B1-8660-060924F74161}"/>
+              <c16:uniqueId val="{00000001-3D3B-4D3B-8FB9-D903F0E3166D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>actual</c:v>
+            <c:v>PSPL GPU Time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="20"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1047825709608796E-2"/>
+                  <c:y val="3.1688957259830793E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -1363,10 +2758,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7617-47B1-8660-060924F74161}"/>
+              <c16:uniqueId val="{00000002-3D3B-4D3B-8FB9-D903F0E3166D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1386,7 +2781,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="512"/>
+          <c:min val="1024"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1394,7 +2789,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1411,12 +2806,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1424,10 +2816,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>Matrix Dimension</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Matrix</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t> Dimension (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1444,12 +2840,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1466,14 +2859,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1482,12 +2874,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1506,7 +2895,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="32"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1514,7 +2903,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1531,12 +2920,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1544,10 +2930,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>Time in ms</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Time (in ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1564,12 +2950,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1586,14 +2969,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1602,12 +2984,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1630,7 +3009,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1644,12 +3023,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1677,881 +3053,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="4800"/>
-              <a:t>Pastel-Palettes vs. HLIBpro.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="4800" baseline="0"/>
-              <a:t> H-LU factorization time</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="4800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>pspl</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$29:$M$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36.779090000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.335999000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159.32601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>356.31354500000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>869.03319299999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2314.3076289999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62A5-4FC9-AD65-1C0671AFD805}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>pspl (split kernel)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$29:$N$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>35.982368000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.041054000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160.98133899999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>343.41473400000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>776.57318099999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1776.786621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-62A5-4FC9-AD65-1C0671AFD805}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>hlibpro w/o DAG</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$29:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-62A5-4FC9-AD65-1C0671AFD805}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>hlibpro w/ DAG</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$29:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2370</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5680</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D81F-4B91-A12F-1162F7A19488}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>n log^2 n</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$93:$A$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.120000000000019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>207.35999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>486.71999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1128.9599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D81F-4B91-A12F-1162F7A19488}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="93514464"/>
-        <c:axId val="2064235152"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="93514464"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="512"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>Matrix</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" baseline="0"/>
-                  <a:t> Dimension</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2064235152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2064235152"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="32"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
-                  <a:t>Time in ms</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93514464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2658,76 +3160,30 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2740,7 +3196,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2748,7 +3204,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2756,17 +3212,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2775,9 +3228,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2800,35 +3252,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2840,18 +3292,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -2860,10 +3313,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2879,21 +3332,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2903,23 +3351,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2928,17 +3375,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2947,14 +3394,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2966,26 +3412,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2999,17 +3439,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3018,17 +3457,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3037,17 +3476,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3056,27 +3494,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3084,11 +3519,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3096,17 +3539,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3115,12 +3558,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3129,14 +3569,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3145,10 +3584,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3157,20 +3593,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3179,20 +3614,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3202,48 +3633,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3256,7 +3675,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3264,7 +3683,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3272,17 +3691,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -3291,9 +3707,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3316,35 +3731,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3356,18 +3771,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -3376,10 +3792,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3395,21 +3811,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3419,23 +3830,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3444,17 +3854,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3463,14 +3873,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3482,26 +3891,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3515,17 +3918,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3534,17 +3936,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3553,17 +3955,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3572,27 +3973,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3600,11 +3998,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3612,17 +4018,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3631,12 +4037,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3645,14 +4048,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3661,10 +4063,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3673,20 +4072,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3695,20 +4093,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3718,530 +4112,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4287,53 +4159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>430353</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>66672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795CE7FE-2630-4C7A-AFF0-D7300A42E291}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447672</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4354,7 +4188,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4628,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="F92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S156" sqref="S156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5483,7 +5317,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="6">
-        <v>1.0823130000000001E-15</v>
+        <v>7.1383120000000001E-14</v>
       </c>
       <c r="J29" s="1">
         <v>8.6515559999999994</v>
@@ -5529,7 +5363,7 @@
         <v>2.0307674426156628</v>
       </c>
       <c r="I30" s="6">
-        <v>2.077688E-15</v>
+        <v>5.8300000000000001E-14</v>
       </c>
       <c r="J30" s="1">
         <v>11.470950999999999</v>
@@ -5574,7 +5408,7 @@
         <v>2.083039744877659</v>
       </c>
       <c r="I31" s="6">
-        <v>3.1849460000000001E-15</v>
+        <v>4.4984140000000001E-14</v>
       </c>
       <c r="J31" s="1">
         <v>16.485199000000001</v>
@@ -5619,7 +5453,7 @@
         <v>2.0436004704620223</v>
       </c>
       <c r="I32" s="6">
-        <v>8.7046309999999992E-12</v>
+        <v>4.4681980000000002E-14</v>
       </c>
       <c r="J32" s="1">
         <v>20.277083999999999</v>
@@ -5664,7 +5498,7 @@
         <v>2.0719003095927198</v>
       </c>
       <c r="I33" s="6">
-        <v>9.560457E-11</v>
+        <v>9.5604570000000002E-14</v>
       </c>
       <c r="J33" s="1">
         <v>24.250201000000001</v>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08561EA6-1219-4959-8208-3F498B695D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,22 +174,38 @@
     <t>hlibpro DAG time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>h2 store compress rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stored #elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeage multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -247,7 +262,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +280,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -300,6 +315,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -322,7 +338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -665,7 +681,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -685,6 +701,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-96B3-4AF8-9337-67ADCDEDD873}"/>
@@ -714,7 +731,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -897,7 +914,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -917,6 +934,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-96B3-4AF8-9337-67ADCDEDD873}"/>
@@ -946,7 +964,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1081,6 +1099,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1103,7 +1122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1137,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299303424"/>
@@ -1191,6 +1210,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1213,7 +1233,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1247,7 +1267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299291360"/>
@@ -1288,6 +1308,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1310,7 +1331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1344,7 +1365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450491216"/>
@@ -1377,6 +1398,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1399,12 +1421,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1412,7 +1435,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1436,7 +1458,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1450,7 +1472,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1485,6 +1507,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1507,7 +1530,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1610,7 +1633,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1630,6 +1653,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -1659,7 +1683,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1878,7 +1902,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1898,6 +1922,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -1936,7 +1961,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2115,7 +2140,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2135,6 +2160,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2164,7 +2190,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2422,7 +2448,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2442,6 +2468,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2471,7 +2498,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2640,7 +2667,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="ja-JP"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2660,6 +2687,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2689,7 +2717,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2827,6 +2855,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2849,7 +2878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2883,7 +2912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064235152"/>
@@ -2937,6 +2966,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2959,7 +2989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2993,7 +3023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93514464"/>
@@ -3010,6 +3040,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3032,12 +3063,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3045,7 +3077,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3069,7 +3100,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4459,20 +4490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S156" sqref="S156"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="14" width="16.625" customWidth="1"/>
+    <col min="1" max="6" width="8.6171875" customWidth="1"/>
+    <col min="7" max="14" width="16.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A7" si="0">POWER(B2, C2)*D2</f>
         <v>1024</v>
@@ -4540,7 +4571,7 @@
         <v>0.42310982143432324</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -4577,7 +4608,7 @@
         <v>0.14235387829435581</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -4614,7 +4645,7 @@
         <v>5.3258888400786478E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -4651,7 +4682,7 @@
         <v>1.6732838910005581E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -4688,7 +4719,7 @@
         <v>5.1824899715646839E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -4725,13 +4756,13 @@
         <v>1.5844553732046538E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.85">
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.85">
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,8 +4788,17 @@
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A16" si="3">POWER(B11, C11)*D11</f>
         <v>1024</v>
@@ -4786,8 +4826,18 @@
       <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>0.66064453125</v>
+      </c>
+      <c r="K11" s="1">
+        <f>J11*POWER(A2,2)</f>
+        <v>692736</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>2048</v>
@@ -4816,8 +4866,19 @@
         <f>H12/H11</f>
         <v>2.3953488372093021</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>0.362548828125</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:K14" si="5">J12*POWER(A3,2)</f>
+        <v>1520640</v>
+      </c>
+      <c r="L12" s="2">
+        <f>K12/K11</f>
+        <v>2.1951219512195124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>4096</v>
@@ -4846,8 +4907,19 @@
         <f>H13/H12</f>
         <v>2.3980582524271843</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="1">
+        <v>0.189422607421875</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>3177984</v>
+      </c>
+      <c r="L13" s="2">
+        <f>K13/K12</f>
+        <v>2.0898989898989897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>8192</v>
@@ -4876,8 +4948,19 @@
         <f>H14/H13</f>
         <v>2.214574898785425</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="1">
+        <v>9.6771240234375E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>6494208</v>
+      </c>
+      <c r="L14" s="2">
+        <f>K14/K13</f>
+        <v>2.0434992750120831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>16384</v>
@@ -4906,8 +4989,19 @@
         <f>H15/H14</f>
         <v>2.1846435100548445</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>4.8906326293945299E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f>J15*POWER(A6,2)</f>
+        <v>13128191.999999996</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15/K14</f>
+        <v>2.0215231788079464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>32768</v>
@@ -4936,18 +5030,29 @@
         <f>H16/H15</f>
         <v>2.1648535564853555</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>2.4584770202636701E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f>J16*POWER(A7,2)</f>
+        <v>26397695.999999981</v>
+      </c>
+      <c r="L16" s="2">
+        <f>K16/K15</f>
+        <v>2.0107640107640101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.85">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.85">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -4986,9 +5091,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A25" si="5">POWER(B20, C20)*D20</f>
+        <f t="shared" ref="A20:A25" si="6">POWER(B20, C20)*D20</f>
         <v>1024</v>
       </c>
       <c r="B20" s="1">
@@ -5026,9 +5131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="B21" s="1">
@@ -5068,9 +5173,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B22" s="1">
@@ -5110,9 +5215,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="B23" s="1">
@@ -5152,9 +5257,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="B24" s="1">
@@ -5194,9 +5299,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="B25" s="1">
@@ -5236,7 +5341,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5247,10 +5352,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.85">
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5292,9 +5397,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A29" s="1">
-        <f t="shared" ref="A29:A34" si="6">POWER(B29, C29)*D29</f>
+        <f t="shared" ref="A29:A34" si="7">POWER(B29, C29)*D29</f>
         <v>1024</v>
       </c>
       <c r="B29" s="1">
@@ -5329,17 +5434,17 @@
         <v>640</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:M34" si="7">K20+G29</f>
+        <f t="shared" ref="M29:M34" si="8">K20+G29</f>
         <v>36.779090000000004</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:N34" si="8">M20+G29</f>
+        <f t="shared" ref="N29:N34" si="9">M20+G29</f>
         <v>35.982368000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="B30" s="1">
@@ -5375,17 +5480,17 @@
         <v>1860</v>
       </c>
       <c r="M30" s="1">
+        <f t="shared" si="8"/>
+        <v>74.335999000000001</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="9"/>
+        <v>73.041054000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A31" s="1">
         <f t="shared" si="7"/>
-        <v>74.335999000000001</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="8"/>
-        <v>73.041054000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B31" s="1">
@@ -5420,17 +5525,17 @@
         <v>2010</v>
       </c>
       <c r="M31" s="1">
+        <f t="shared" si="8"/>
+        <v>159.32601</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="9"/>
+        <v>160.98133899999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A32" s="1">
         <f t="shared" si="7"/>
-        <v>159.32601</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="8"/>
-        <v>160.98133899999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="B32" s="1">
@@ -5465,17 +5570,17 @@
         <v>2370</v>
       </c>
       <c r="M32" s="1">
+        <f t="shared" si="8"/>
+        <v>356.31354500000003</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="9"/>
+        <v>343.41473400000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A33" s="1">
         <f t="shared" si="7"/>
-        <v>356.31354500000003</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="8"/>
-        <v>343.41473400000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="B33" s="1">
@@ -5510,17 +5615,17 @@
         <v>3400</v>
       </c>
       <c r="M33" s="1">
+        <f t="shared" si="8"/>
+        <v>869.03319299999998</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="9"/>
+        <v>776.57318099999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.85">
+      <c r="A34" s="1">
         <f t="shared" si="7"/>
-        <v>869.03319299999998</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="8"/>
-        <v>776.57318099999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="B34" s="1">
@@ -5555,15 +5660,15 @@
         <v>5680</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2314.3076289999999</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1776.786621</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -5580,139 +5685,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A61" s="1">
         <f>(A2) / ($A$2)</f>
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:B66" si="9">(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
+        <f t="shared" ref="B61:B66" si="10">(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61:C66" si="10">(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" ref="C61:C66" si="11">(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ref="D61:D66" si="11">(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" ref="D61:D66" si="12">(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E66" si="12">(A2*A2) / ($A$2*$A$2)</f>
+        <f t="shared" ref="E61:E66" si="13">(A2*A2) / ($A$2*$A$2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A62" s="1">
-        <f t="shared" ref="A62:A66" si="13">(A3) / ($A$2)</f>
+        <f t="shared" ref="A62:A66" si="14">(A3) / ($A$2)</f>
         <v>2</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4200000000000004</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6620000000000004</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A63" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
       <c r="B63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7599999999999989</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9119999999999973</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="9"/>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="10"/>
-        <v>13.519999999999998</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="11"/>
-        <v>17.575999999999993</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A64" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="10"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="11"/>
+        <v>13.519999999999998</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="12"/>
+        <v>17.575999999999993</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A65" s="1">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
       <c r="B65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.4</v>
       </c>
       <c r="C65" s="1">
+        <f t="shared" si="11"/>
+        <v>31.359999999999996</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="12"/>
+        <v>43.903999999999996</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="13"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A66" s="1">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="B66" s="1">
         <f t="shared" si="10"/>
-        <v>31.359999999999996</v>
-      </c>
-      <c r="D65" s="1">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1">
         <f t="shared" si="11"/>
-        <v>43.903999999999996</v>
-      </c>
-      <c r="E65" s="1">
+        <v>72</v>
+      </c>
+      <c r="D66" s="1">
         <f t="shared" si="12"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+        <v>107.99999999999999</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="13"/>
-        <v>32</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="11"/>
-        <v>107.99999999999999</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -5740,101 +5845,101 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A70" s="2">
-        <f t="shared" ref="A70:D74" si="14">B62/B61</f>
+        <f t="shared" ref="A70:D74" si="15">B62/B61</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4200000000000004</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.6620000000000004</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1818181818181817</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3801652892561975</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5965439519158515</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3472222222222223</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.542824074074074</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1538461538461542</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3195266272189348</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4979517523896231</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.295918367346939</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4599125364431487</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -5849,119 +5954,119 @@
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A77" s="1">
-        <f t="shared" ref="A77:D82" si="15">B61*$H$2</f>
+        <f t="shared" ref="A77:D82" si="16">B61*$H$2</f>
         <v>302651904</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>302651904</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>302651904</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>302651904</v>
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>665834188.80000007</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>732417607.68000007</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>805659368.44800007</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1210607616</v>
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1452729139.2</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1743274967.0399997</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2091929960.4479992</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4842430464</v>
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3147579801.5999994</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4091853742.0799994</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5319409864.7039976</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19369721856</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6779402649.5999994</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9491163709.4399986</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13287629193.216</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>77478887424</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14527291392</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21790937088</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32686405631.999996</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>309915549696</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A84" s="3" t="s">
         <v>0</v>
       </c>
@@ -5975,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A85" s="1">
         <f>A61*$G$29</f>
         <v>34.982368000000001</v>
@@ -5993,163 +6098,163 @@
         <v>34.982368000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A86" s="1">
-        <f t="shared" ref="A86:A90" si="16">A62*$G$29</f>
+        <f t="shared" ref="A86:A90" si="17">A62*$G$29</f>
         <v>69.964736000000002</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ref="B86:D90" si="17">B62*$G$29</f>
+        <f t="shared" ref="B86:D90" si="18">B62*$G$29</f>
         <v>76.961209600000004</v>
       </c>
       <c r="C86" s="1">
+        <f t="shared" si="18"/>
+        <v>84.65733056000002</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="18"/>
+        <v>93.12306361600001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A87" s="1">
         <f t="shared" si="17"/>
-        <v>84.65733056000002</v>
-      </c>
-      <c r="D86" s="1">
+        <v>139.929472</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="18"/>
+        <v>167.91536640000001</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="18"/>
+        <v>201.49843967999996</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="18"/>
+        <v>241.7981276159999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A88" s="1">
         <f t="shared" si="17"/>
-        <v>93.12306361600001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <f t="shared" si="16"/>
-        <v>139.929472</v>
-      </c>
-      <c r="B87" s="1">
+        <v>279.85894400000001</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="18"/>
+        <v>363.81662719999997</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="18"/>
+        <v>472.96161535999994</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="18"/>
+        <v>614.85009996799977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A89" s="1">
         <f t="shared" si="17"/>
-        <v>167.91536640000001</v>
-      </c>
-      <c r="C87" s="1">
+        <v>559.71788800000002</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="18"/>
+        <v>783.60504319999995</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="18"/>
+        <v>1097.0470604799998</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="18"/>
+        <v>1535.865884672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A90" s="1">
         <f t="shared" si="17"/>
-        <v>201.49843967999996</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="17"/>
-        <v>241.7981276159999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <f t="shared" si="16"/>
-        <v>279.85894400000001</v>
-      </c>
-      <c r="B88" s="1">
-        <f t="shared" si="17"/>
-        <v>363.81662719999997</v>
-      </c>
-      <c r="C88" s="1">
-        <f t="shared" si="17"/>
-        <v>472.96161535999994</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="17"/>
-        <v>614.85009996799977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <f t="shared" si="16"/>
-        <v>559.71788800000002</v>
-      </c>
-      <c r="B89" s="1">
-        <f t="shared" si="17"/>
-        <v>783.60504319999995</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="17"/>
-        <v>1097.0470604799998</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="17"/>
-        <v>1535.865884672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <f t="shared" si="16"/>
         <v>1119.435776</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1679.1536639999999</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2518.7304960000001</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3778.0957439999997</v>
       </c>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A93" s="1">
         <f>C61*36</f>
         <v>36</v>
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A94" s="1">
-        <f t="shared" ref="A94:A98" si="18">C62*36</f>
+        <f t="shared" ref="A94:A98" si="19">C62*36</f>
         <v>87.120000000000019</v>
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>207.35999999999996</v>
       </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>486.71999999999991</v>
       </c>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A97" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1128.9599999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A98" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.85">
       <c r="E104" s="4"/>
     </row>
   </sheetData>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471E928-F96C-4613-938E-5CF1B888C881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,18 +186,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>storeage multiplier</t>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
+    <t>accuracy compress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU accuracy (1e-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2 store after LU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-const time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +277,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -280,7 +295,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,7 +330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -396,7 +410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$77:$B$82</c:f>
+              <c:f>Sheet1!$B$78:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -476,7 +490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$77:$C$82</c:f>
+              <c:f>Sheet1!$C$78:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -556,7 +570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$77:$D$82</c:f>
+              <c:f>Sheet1!$D$78:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -701,7 +715,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-96B3-4AF8-9337-67ADCDEDD873}"/>
@@ -934,7 +947,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-96B3-4AF8-9337-67ADCDEDD873}"/>
@@ -1099,7 +1111,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1210,7 +1221,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1308,7 +1318,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1398,7 +1407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,7 +1435,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1435,6 +1442,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1472,7 +1480,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1507,7 +1515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1653,7 +1660,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -1922,7 +1928,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2160,7 +2165,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2323,7 +2327,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$93:$A$98</c:f>
+              <c:f>Sheet1!$A$94:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2468,7 +2472,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2687,7 +2690,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-3D3B-4D3B-8FB9-D903F0E3166D}"/>
@@ -2855,7 +2857,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2966,7 +2967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3040,7 +3040,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,7 +3068,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3077,6 +3075,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4155,13 +4154,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4191,13 +4190,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>430353</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>66672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4490,20 +4489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="8.6171875" customWidth="1"/>
-    <col min="7" max="14" width="16.6171875" customWidth="1"/>
+    <col min="1" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="14" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A7" si="0">POWER(B2, C2)*D2</f>
         <v>1024</v>
@@ -4571,7 +4570,7 @@
         <v>0.42310982143432324</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -4608,7 +4607,7 @@
         <v>0.14235387829435581</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -4645,7 +4644,7 @@
         <v>5.3258888400786478E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -4682,7 +4681,7 @@
         <v>1.6732838910005581E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -4719,7 +4718,7 @@
         <v>5.1824899715646839E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -4756,13 +4755,13 @@
         <v>1.5844553732046538E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4779,26 +4778,23 @@
         <v>28</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A16" si="3">POWER(B11, C11)*D11</f>
         <v>1024</v>
@@ -4816,28 +4812,24 @@
         <v>256</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
+        <v>3.6236525474178498E-17</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.671875</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11:H16" si="4">G11*POWER(A2,2)</f>
+      <c r="I11" s="1">
+        <f>H11*POWER(A2,2)</f>
         <v>704512</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="1">
-        <v>0.66064453125</v>
-      </c>
       <c r="K11" s="1">
-        <f>J11*POWER(A2,2)</f>
-        <v>692736</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>2048</v>
@@ -4855,30 +4847,25 @@
         <v>512</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
+        <v>9.51897849404182E-17</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.40234375</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="4"/>
+      <c r="I12" s="1">
+        <f>H12*POWER(A3,2)</f>
         <v>1687552</v>
       </c>
-      <c r="I12" s="2">
-        <f>H12/H11</f>
+      <c r="J12" s="2">
+        <f>I12/I11</f>
         <v>2.3953488372093021</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.362548828125</v>
-      </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K14" si="5">J12*POWER(A3,2)</f>
-        <v>1520640</v>
-      </c>
-      <c r="L12" s="2">
-        <f>K12/K11</f>
-        <v>2.1951219512195124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.85">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>4096</v>
@@ -4896,30 +4883,25 @@
         <v>512</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
+        <v>1.5792903679099199E-16</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.2412109375</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="4"/>
+      <c r="I13" s="1">
+        <f>H13*POWER(A4,2)</f>
         <v>4046848</v>
       </c>
-      <c r="I13" s="2">
-        <f>H13/H12</f>
+      <c r="J13" s="2">
+        <f>I13/I12</f>
         <v>2.3980582524271843</v>
       </c>
-      <c r="J13" s="1">
-        <v>0.189422607421875</v>
-      </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>3177984</v>
-      </c>
-      <c r="L13" s="2">
-        <f>K13/K12</f>
-        <v>2.0898989898989897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.85">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>8192</v>
@@ -4937,30 +4919,25 @@
         <v>1024</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
+        <v>2.27324317781143E-16</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.133544921875</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="4"/>
+      <c r="I14" s="1">
+        <f>H14*POWER(A5,2)</f>
         <v>8962048</v>
       </c>
-      <c r="I14" s="2">
-        <f>H14/H13</f>
+      <c r="J14" s="2">
+        <f>I14/I13</f>
         <v>2.214574898785425</v>
       </c>
-      <c r="J14" s="1">
-        <v>9.6771240234375E-2</v>
-      </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
-        <v>6494208</v>
-      </c>
-      <c r="L14" s="2">
-        <f>K14/K13</f>
-        <v>2.0434992750120831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.85">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>16384</v>
@@ -4978,30 +4955,25 @@
         <v>2048</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
+        <v>2.8120240763971301E-16</v>
+      </c>
+      <c r="H15" s="1">
         <v>7.293701171875E-2</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="4"/>
+      <c r="I15" s="1">
+        <f>H15*POWER(A6,2)</f>
         <v>19578880</v>
       </c>
-      <c r="I15" s="2">
-        <f>H15/H14</f>
+      <c r="J15" s="2">
+        <f>I15/I14</f>
         <v>2.1846435100548445</v>
       </c>
-      <c r="J15" s="1">
-        <v>4.8906326293945299E-2</v>
-      </c>
       <c r="K15" s="1">
-        <f>J15*POWER(A6,2)</f>
-        <v>13128191.999999996</v>
-      </c>
-      <c r="L15" s="2">
-        <f>K15/K14</f>
-        <v>2.0215231788079464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.85">
+        <v>16535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>32768</v>
@@ -5019,40 +4991,35 @@
         <v>4096</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
+        <v>3.4100413625562602E-16</v>
+      </c>
+      <c r="H16" s="3">
         <v>3.94744873046875E-2</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="4"/>
+      <c r="I16" s="1">
+        <f>H16*POWER(A7,2)</f>
         <v>42385408</v>
       </c>
-      <c r="I16" s="2">
-        <f>H16/H15</f>
+      <c r="J16" s="2">
+        <f>I16/I15</f>
         <v>2.1648535564853555</v>
       </c>
-      <c r="J16" s="1">
-        <v>2.4584770202636701E-2</v>
-      </c>
       <c r="K16" s="1">
-        <f>J16*POWER(A7,2)</f>
-        <v>26397695.999999981</v>
-      </c>
-      <c r="L16" s="2">
-        <f>K16/K15</f>
-        <v>2.0107640107640101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.85">
+        <v>72089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5091,9 +5058,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A25" si="6">POWER(B20, C20)*D20</f>
+        <f t="shared" ref="A20:A25" si="4">POWER(B20, C20)*D20</f>
         <v>1024</v>
       </c>
       <c r="B20" s="1">
@@ -5131,9 +5098,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="B21" s="1">
@@ -5173,9 +5140,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4096</v>
       </c>
       <c r="B22" s="1">
@@ -5215,9 +5182,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8192</v>
       </c>
       <c r="B23" s="1">
@@ -5257,9 +5224,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16384</v>
       </c>
       <c r="B24" s="1">
@@ -5299,9 +5266,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32768</v>
       </c>
       <c r="B25" s="1">
@@ -5341,7 +5308,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5352,10 +5319,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5397,9 +5364,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" ref="A29:A34" si="7">POWER(B29, C29)*D29</f>
+        <f t="shared" ref="A29:A34" si="5">POWER(B29, C29)*D29</f>
         <v>1024</v>
       </c>
       <c r="B29" s="1">
@@ -5434,17 +5401,17 @@
         <v>640</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:M34" si="8">K20+G29</f>
+        <f>K20+G29</f>
         <v>36.779090000000004</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:N34" si="9">M20+G29</f>
+        <f>M20+G29</f>
         <v>35.982368000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
       <c r="B30" s="1">
@@ -5480,17 +5447,17 @@
         <v>1860</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="8"/>
+        <f>K21+G30</f>
         <v>74.335999000000001</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="9"/>
+        <f>M21+G30</f>
         <v>73.041054000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="B31" s="1">
@@ -5525,17 +5492,17 @@
         <v>2010</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="8"/>
+        <f>K22+G31</f>
         <v>159.32601</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="9"/>
+        <f>M22+G31</f>
         <v>160.98133899999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="B32" s="1">
@@ -5570,17 +5537,17 @@
         <v>2370</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="8"/>
+        <f>K23+G32</f>
         <v>356.31354500000003</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="9"/>
+        <f>M23+G32</f>
         <v>343.41473400000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="B33" s="1">
@@ -5615,17 +5582,17 @@
         <v>3400</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="8"/>
+        <f>K24+G33</f>
         <v>869.03319299999998</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="9"/>
+        <f>M24+G33</f>
         <v>776.57318099999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="B34" s="1">
@@ -5660,602 +5627,875 @@
         <v>5680</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="8"/>
+        <f>K25+G34</f>
         <v>2314.3076289999999</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="9"/>
+        <f>M25+G34</f>
         <v>1776.786621</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A60" s="1" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:A43" si="6">POWER(B38, C38)*D38</f>
+        <v>1024</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>256</v>
+      </c>
+      <c r="G38" s="6">
+        <v>6.7243375459337403E-17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.66064453125</v>
+      </c>
+      <c r="I38" s="1">
+        <f>H38*POWER(A2,2)</f>
+        <v>692736</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1">
+        <v>46</v>
+      </c>
+      <c r="L38" s="6">
+        <v>5.6458741659388199E-10</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.66706562042236295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>256</v>
+      </c>
+      <c r="G39" s="6">
+        <v>3.0964882856728599E-16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.362548828125</v>
+      </c>
+      <c r="I39" s="1">
+        <f>H39*POWER(A3,2)</f>
+        <v>1520640</v>
+      </c>
+      <c r="J39" s="2">
+        <f>I39/I38</f>
+        <v>2.1951219512195124</v>
+      </c>
+      <c r="K39" s="1">
+        <v>220</v>
+      </c>
+      <c r="L39" s="6">
+        <v>6.6174277556371499E-10</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.36904144287109297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <f t="shared" si="6"/>
+        <v>4096</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>256</v>
+      </c>
+      <c r="G40" s="6">
+        <v>8.1483478453003E-16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.189422607421875</v>
+      </c>
+      <c r="I40" s="1">
+        <f>H40*POWER(A4,2)</f>
+        <v>3177984</v>
+      </c>
+      <c r="J40" s="2">
+        <f>I40/I39</f>
+        <v>2.0898989898989897</v>
+      </c>
+      <c r="K40" s="1">
+        <v>879</v>
+      </c>
+      <c r="L40" s="6">
+        <v>3.3404470492064902E-10</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.19459706544876099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <f t="shared" si="6"/>
+        <v>8192</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>256</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1.51846330247227E-15</v>
+      </c>
+      <c r="H41" s="1">
+        <v>9.6771240234375E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <f>H41*POWER(A5,2)</f>
+        <v>6494208</v>
+      </c>
+      <c r="J41" s="2">
+        <f>I41/I40</f>
+        <v>2.0434992750120831</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4283</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1.7364720191047599E-10</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.100671142339706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <f t="shared" si="6"/>
+        <v>16384</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>256</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2.2494337046555901E-15</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4.8906326293945299E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <f>H42*POWER(A6,2)</f>
+        <v>13128191.999999996</v>
+      </c>
+      <c r="J42" s="2">
+        <f>I42/I41</f>
+        <v>2.0215231788079464</v>
+      </c>
+      <c r="K42" s="1">
+        <v>19747</v>
+      </c>
+      <c r="L42" s="6">
+        <v>7.5397749391823299E-11</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5.1916841417550999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <f t="shared" si="6"/>
+        <v>32768</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>256</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3.1073579458810102E-15</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.4584770202636701E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <f>H43*POWER(A7,2)</f>
+        <v>26397695.999999981</v>
+      </c>
+      <c r="J43" s="2">
+        <f>I43/I42</f>
+        <v>2.0107640107640101</v>
+      </c>
+      <c r="K43" s="1">
+        <v>90239</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A61" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <f>(A2) / ($A$2)</f>
         <v>1</v>
       </c>
-      <c r="B61" s="1">
-        <f t="shared" ref="B61:B66" si="10">(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
+      <c r="B62" s="1">
+        <f>(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
         <v>1</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:C66" si="11">(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
+      <c r="C62" s="1">
+        <f>(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
-      <c r="D61" s="1">
-        <f t="shared" ref="D61:D66" si="12">(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+      <c r="D62" s="1">
+        <f>(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
-      <c r="E61" s="1">
-        <f t="shared" ref="E61:E66" si="13">(A2*A2) / ($A$2*$A$2)</f>
+      <c r="E62" s="1">
+        <f>(A2*A2) / ($A$2*$A$2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A62" s="1">
-        <f t="shared" ref="A62:A66" si="14">(A3) / ($A$2)</f>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <f>(A3) / ($A$2)</f>
         <v>2</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="1">
+        <f>(LN(A3) * A3) / (LN($A$2) * $A$2)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C63" s="1">
+        <f>(LN(A3)*LN(A3)*A3) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>2.4200000000000004</v>
+      </c>
+      <c r="D63" s="1">
+        <f>(LN(A3)*LN(A3)*LN(A3)*A3) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>2.6620000000000004</v>
+      </c>
+      <c r="E63" s="1">
+        <f>(A3*A3) / ($A$2*$A$2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <f>(A4) / ($A$2)</f>
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <f>(LN(A4) * A4) / (LN($A$2) * $A$2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="C64" s="1">
+        <f>(LN(A4)*LN(A4)*A4) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>5.7599999999999989</v>
+      </c>
+      <c r="D64" s="1">
+        <f>(LN(A4)*LN(A4)*LN(A4)*A4) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>6.9119999999999973</v>
+      </c>
+      <c r="E64" s="1">
+        <f>(A4*A4) / ($A$2*$A$2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <f>(A5) / ($A$2)</f>
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <f>(LN(A5) * A5) / (LN($A$2) * $A$2)</f>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="C65" s="1">
+        <f>(LN(A5)*LN(A5)*A5) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>13.519999999999998</v>
+      </c>
+      <c r="D65" s="1">
+        <f>(LN(A5)*LN(A5)*LN(A5)*A5) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>17.575999999999993</v>
+      </c>
+      <c r="E65" s="1">
+        <f>(A5*A5) / ($A$2*$A$2)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <f>(A6) / ($A$2)</f>
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <f>(LN(A6) * A6) / (LN($A$2) * $A$2)</f>
+        <v>22.4</v>
+      </c>
+      <c r="C66" s="1">
+        <f>(LN(A6)*LN(A6)*A6) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>31.359999999999996</v>
+      </c>
+      <c r="D66" s="1">
+        <f>(LN(A6)*LN(A6)*LN(A6)*A6) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>43.903999999999996</v>
+      </c>
+      <c r="E66" s="1">
+        <f>(A6*A6) / ($A$2*$A$2)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <f>(A7) / ($A$2)</f>
+        <v>32</v>
+      </c>
+      <c r="B67" s="1">
+        <f>(LN(A7) * A7) / (LN($A$2) * $A$2)</f>
+        <v>48</v>
+      </c>
+      <c r="C67" s="1">
+        <f>(LN(A7)*LN(A7)*A7) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>72</v>
+      </c>
+      <c r="D67" s="1">
+        <f>(LN(A7)*LN(A7)*LN(A7)*A7) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="E67" s="1">
+        <f>(A7*A7) / ($A$2*$A$2)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <f t="shared" ref="A71:D75" si="7">B63/B62</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4200000000000004</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6620000000000004</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3801652892561975</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5965439519158515</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3472222222222223</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="7"/>
+        <v>2.542824074074074</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1538461538461542</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3195266272189348</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4979517523896231</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="7"/>
+        <v>2.295918367346939</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4599125364431487</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <f t="shared" ref="A78:D83" si="8">B62*$H$2</f>
+        <v>302651904</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="8"/>
+        <v>302651904</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="8"/>
+        <v>302651904</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="8"/>
+        <v>302651904</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <f t="shared" si="8"/>
+        <v>665834188.80000007</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="8"/>
+        <v>732417607.68000007</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>805659368.44800007</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="8"/>
+        <v>1210607616</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <f t="shared" si="8"/>
+        <v>1452729139.2</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="8"/>
+        <v>1743274967.0399997</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>2091929960.4479992</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="8"/>
+        <v>4842430464</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <f t="shared" si="8"/>
+        <v>3147579801.5999994</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="8"/>
+        <v>4091853742.0799994</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="8"/>
+        <v>5319409864.7039976</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="8"/>
+        <v>19369721856</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <f t="shared" si="8"/>
+        <v>6779402649.5999994</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="8"/>
+        <v>9491163709.4399986</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="8"/>
+        <v>13287629193.216</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="8"/>
+        <v>77478887424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <f t="shared" si="8"/>
+        <v>14527291392</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="8"/>
+        <v>21790937088</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="8"/>
+        <v>32686405631.999996</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="8"/>
+        <v>309915549696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <f>A62*$G$29</f>
+        <v>34.982368000000001</v>
+      </c>
+      <c r="B86" s="1">
+        <f>B62*$G$29</f>
+        <v>34.982368000000001</v>
+      </c>
+      <c r="C86" s="1">
+        <f>C62*$G$29</f>
+        <v>34.982368000000001</v>
+      </c>
+      <c r="D86" s="1">
+        <f>D62*$G$29</f>
+        <v>34.982368000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <f t="shared" ref="A87:A91" si="9">A63*$G$29</f>
+        <v>69.964736000000002</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" ref="B87:D91" si="10">B63*$G$29</f>
+        <v>76.961209600000004</v>
+      </c>
+      <c r="C87" s="1">
         <f t="shared" si="10"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C62" s="1">
+        <v>84.65733056000002</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="10"/>
+        <v>93.12306361600001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <f t="shared" si="9"/>
+        <v>139.929472</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="10"/>
+        <v>167.91536640000001</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="10"/>
+        <v>201.49843967999996</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="10"/>
+        <v>241.7981276159999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <f t="shared" si="9"/>
+        <v>279.85894400000001</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="10"/>
+        <v>363.81662719999997</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="10"/>
+        <v>472.96161535999994</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="10"/>
+        <v>614.85009996799977</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <f t="shared" si="9"/>
+        <v>559.71788800000002</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="10"/>
+        <v>783.60504319999995</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="10"/>
+        <v>1097.0470604799998</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="10"/>
+        <v>1535.865884672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <f t="shared" si="9"/>
+        <v>1119.435776</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="10"/>
+        <v>1679.1536639999999</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="10"/>
+        <v>2518.7304960000001</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="10"/>
+        <v>3778.0957439999997</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <f>C62*36</f>
+        <v>36</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <f t="shared" ref="A95:A99" si="11">C63*36</f>
+        <v>87.120000000000019</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
         <f t="shared" si="11"/>
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6620000000000004</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A63" s="1">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="10"/>
-        <v>4.8</v>
-      </c>
-      <c r="C63" s="1">
+        <v>207.35999999999996</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
         <f t="shared" si="11"/>
-        <v>5.7599999999999989</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="12"/>
-        <v>6.9119999999999973</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A64" s="1">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="10"/>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="C64" s="1">
+        <v>486.71999999999991</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <f t="shared" si="11"/>
-        <v>13.519999999999998</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="12"/>
-        <v>17.575999999999993</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A65" s="1">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="10"/>
-        <v>22.4</v>
-      </c>
-      <c r="C65" s="1">
+        <v>1128.9599999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
         <f t="shared" si="11"/>
-        <v>31.359999999999996</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="12"/>
-        <v>43.903999999999996</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="13"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A66" s="1">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="12"/>
-        <v>107.99999999999999</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="13"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A70" s="2">
-        <f t="shared" ref="A70:D74" si="15">B62/B61</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="15"/>
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" si="15"/>
-        <v>2.6620000000000004</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A71" s="2">
-        <f t="shared" si="15"/>
-        <v>2.1818181818181817</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="15"/>
-        <v>2.3801652892561975</v>
-      </c>
-      <c r="C71" s="2">
-        <f t="shared" si="15"/>
-        <v>2.5965439519158515</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A72" s="2">
-        <f t="shared" si="15"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="15"/>
-        <v>2.3472222222222223</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" si="15"/>
-        <v>2.542824074074074</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A73" s="2">
-        <f t="shared" si="15"/>
-        <v>2.1538461538461542</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="15"/>
-        <v>2.3195266272189348</v>
-      </c>
-      <c r="C73" s="2">
-        <f t="shared" si="15"/>
-        <v>2.4979517523896231</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A74" s="2">
-        <f t="shared" si="15"/>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="15"/>
-        <v>2.295918367346939</v>
-      </c>
-      <c r="C74" s="2">
-        <f t="shared" si="15"/>
-        <v>2.4599125364431487</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A77" s="1">
-        <f t="shared" ref="A77:D82" si="16">B61*$H$2</f>
-        <v>302651904</v>
-      </c>
-      <c r="B77" s="1">
-        <f t="shared" si="16"/>
-        <v>302651904</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="16"/>
-        <v>302651904</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="16"/>
-        <v>302651904</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A78" s="1">
-        <f t="shared" si="16"/>
-        <v>665834188.80000007</v>
-      </c>
-      <c r="B78" s="1">
-        <f t="shared" si="16"/>
-        <v>732417607.68000007</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="16"/>
-        <v>805659368.44800007</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="16"/>
-        <v>1210607616</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A79" s="1">
-        <f t="shared" si="16"/>
-        <v>1452729139.2</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" si="16"/>
-        <v>1743274967.0399997</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="16"/>
-        <v>2091929960.4479992</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="16"/>
-        <v>4842430464</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A80" s="1">
-        <f t="shared" si="16"/>
-        <v>3147579801.5999994</v>
-      </c>
-      <c r="B80" s="1">
-        <f t="shared" si="16"/>
-        <v>4091853742.0799994</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="16"/>
-        <v>5319409864.7039976</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="16"/>
-        <v>19369721856</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A81" s="1">
-        <f t="shared" si="16"/>
-        <v>6779402649.5999994</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" si="16"/>
-        <v>9491163709.4399986</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="16"/>
-        <v>13287629193.216</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="16"/>
-        <v>77478887424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A82" s="1">
-        <f t="shared" si="16"/>
-        <v>14527291392</v>
-      </c>
-      <c r="B82" s="1">
-        <f t="shared" si="16"/>
-        <v>21790937088</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="16"/>
-        <v>32686405631.999996</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="16"/>
-        <v>309915549696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A85" s="1">
-        <f>A61*$G$29</f>
-        <v>34.982368000000001</v>
-      </c>
-      <c r="B85" s="1">
-        <f>B61*$G$29</f>
-        <v>34.982368000000001</v>
-      </c>
-      <c r="C85" s="1">
-        <f>C61*$G$29</f>
-        <v>34.982368000000001</v>
-      </c>
-      <c r="D85" s="1">
-        <f>D61*$G$29</f>
-        <v>34.982368000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A86" s="1">
-        <f t="shared" ref="A86:A90" si="17">A62*$G$29</f>
-        <v>69.964736000000002</v>
-      </c>
-      <c r="B86" s="1">
-        <f t="shared" ref="B86:D90" si="18">B62*$G$29</f>
-        <v>76.961209600000004</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="18"/>
-        <v>84.65733056000002</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="18"/>
-        <v>93.12306361600001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A87" s="1">
-        <f t="shared" si="17"/>
-        <v>139.929472</v>
-      </c>
-      <c r="B87" s="1">
-        <f t="shared" si="18"/>
-        <v>167.91536640000001</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="18"/>
-        <v>201.49843967999996</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="18"/>
-        <v>241.7981276159999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A88" s="1">
-        <f t="shared" si="17"/>
-        <v>279.85894400000001</v>
-      </c>
-      <c r="B88" s="1">
-        <f t="shared" si="18"/>
-        <v>363.81662719999997</v>
-      </c>
-      <c r="C88" s="1">
-        <f t="shared" si="18"/>
-        <v>472.96161535999994</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="18"/>
-        <v>614.85009996799977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A89" s="1">
-        <f t="shared" si="17"/>
-        <v>559.71788800000002</v>
-      </c>
-      <c r="B89" s="1">
-        <f t="shared" si="18"/>
-        <v>783.60504319999995</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="18"/>
-        <v>1097.0470604799998</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="18"/>
-        <v>1535.865884672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A90" s="1">
-        <f t="shared" si="17"/>
-        <v>1119.435776</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" si="18"/>
-        <v>1679.1536639999999</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="18"/>
-        <v>2518.7304960000001</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="18"/>
-        <v>3778.0957439999997</v>
-      </c>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A93" s="1">
-        <f>C61*36</f>
-        <v>36</v>
-      </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A94" s="1">
-        <f t="shared" ref="A94:A98" si="19">C62*36</f>
-        <v>87.120000000000019</v>
-      </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A95" s="1">
-        <f t="shared" si="19"/>
-        <v>207.35999999999996</v>
-      </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A96" s="1">
-        <f t="shared" si="19"/>
-        <v>486.71999999999991</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A97" s="1">
-        <f t="shared" si="19"/>
-        <v>1128.9599999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="A98" s="1">
-        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.85">
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E105" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471E928-F96C-4613-938E-5CF1B888C881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923C0A6-822B-4902-B1C1-4796D3BE55F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,250 +363,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>O(n log^2 n) Reference</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$78:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>302651904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>732417607.68000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1743274967.0399997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4091853742.0799994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9491163709.4399986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21790937088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B9B-4613-A2FB-B4EBE13C2141}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>O(n log^3 n) Reference</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$78:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>302651904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>805659368.44800007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2091929960.4479992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5319409864.7039976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13287629193.216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32686405631.999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B9B-4613-A2FB-B4EBE13C2141}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>O(n^2) Reference</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$78:$D$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>302651904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1210607616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4842430464</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19369721856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77478887424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309915549696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0408-40A4-B087-D370BDF144C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Number FLOPS</c:v>
+            <c:v>Number FLOPS H-LU</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -618,62 +378,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2425241079607062E-2"/>
-                  <c:y val="-4.7117922804518125E-2"/>
+                  <c:x val="-0.33567971149433273"/>
+                  <c:y val="0.10969128507108032"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="25000"/>
                       <a:lumOff val="75000"/>
                     </a:sysClr>
                   </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -708,7 +451,10 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -3939"/>
+                        <a:gd name="adj2" fmla="val 199388"/>
+                      </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
                     <a:ln>
@@ -820,6 +566,166 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>O(n log^2 n) Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$78:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>302651904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>732417607.68000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1743274967.0399997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4091853742.0799994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9491163709.4399986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21790937088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B9B-4613-A2FB-B4EBE13C2141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>O(n^2) Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>302651904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1210607616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4842430464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19369721856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77478887424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309915549696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0408-40A4-B087-D370BDF144C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -836,9 +742,9 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>Accuracy</c:v>
+            <c:v>H-LU Accuracy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -850,43 +756,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
@@ -1049,6 +919,174 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>H2-LU Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3403088704175287E-2"/>
+                  <c:y val="-3.7747478455700978E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{92E1A8DB-1C40-4488-B199-4C6CE53F1810}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-2DEC-4D82-BB54-DB3A14ABEBC9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$38:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6458741659388199E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6174277556371499E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3404470492064902E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7364720191047599E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5397749391823299E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-2DEC-4D82-BB54-DB3A14ABEBC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1137,7 +1175,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1287,9 +1325,9 @@
       <c:valAx>
         <c:axId val="450485392"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="100"/>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="100000000000000"/>
           <c:min val="1.0000000000000008E-14"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1766,8 +1804,444 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PSPL CPU Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7986619751437974E-3"/>
+                  <c:y val="3.0179959295076893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$20:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PSPL GPU Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1047825709608796E-2"/>
+                  <c:y val="3.1688957259830793E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.982368000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.041054000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.98133899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302.41473400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>626.57318099999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1304.786621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D3B-4D3B-8FB9-D903F0E3166D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>HLIBpro (DAG disabled)</c:v>
           </c:tx>
@@ -2054,7 +2528,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>HLIBpro (DAG enabled)</c:v>
           </c:tx>
@@ -2272,7 +2746,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>O(n log^2 n) Reference</c:v>
           </c:tx>
@@ -2356,442 +2830,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D81F-4B91-A12F-1162F7A19488}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>PSPL CPU Time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.7986619751437974E-3"/>
-                  <c:y val="3.0179959295076893E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-3D3B-4D3B-8FB9-D903F0E3166D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$20:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>472</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D3B-4D3B-8FB9-D903F0E3166D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>PSPL GPU Time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1047825709608796E-2"/>
-                  <c:y val="3.1688957259830793E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-3D3B-4D3B-8FB9-D903F0E3166D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$29:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>34.982368000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.041054000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147.98133899999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>302.41473400000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>626.57318099999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1304.786621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D3B-4D3B-8FB9-D903F0E3166D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2960,8 +2998,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>Factorization </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-                  <a:t>Time (in ms)</a:t>
+                  <a:t>Time (Milli-Seconds)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
               </a:p>
@@ -2993,7 +3035,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3110,6 +3152,4705 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Hierarchical Matrix Construction Time &amp; Error</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H conctruct time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.9784959754122188E-2"/>
+                  <c:y val="0.11436718424713099"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0352184A-535F-4204-9B0A-823DA8B0C146}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:pPr/>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B44E-4D45-95C8-32B5F615FCA9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B44E-4D45-95C8-32B5F615FCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>H2 Construct time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16602152786677216"/>
+                  <c:y val="-8.6314856035570459E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC6C6DA7-F92A-4F1F-B659-9563F3D2E270}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:pPr/>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B44E-4D45-95C8-32B5F615FCA9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$38:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B44E-4D45-95C8-32B5F615FCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>O(n^2) Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$94:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B44E-4D45-95C8-32B5F615FCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="295097023"/>
+        <c:axId val="297222255"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H Construct Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12645163003324089"/>
+                  <c:y val="3.7762749515562119E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{603CC12F-9701-4D40-9F0B-E6FEF675533A}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-B44E-4D45-95C8-32B5F615FCA9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6236525474178498E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.51897849404182E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5792903679099199E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27324317781143E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8120240763971301E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4100413625562602E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B44E-4D45-95C8-32B5F615FCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>H2 Construct Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12731184520353517"/>
+                  <c:y val="-4.3157428017785354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{29C62368-3A3D-4EDB-858E-04F3B3018089}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B44E-4D45-95C8-32B5F615FCA9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$38:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.7243375459337403E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0964882856728599E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1483478453003E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51846330247227E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2494337046555901E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1073579458810102E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B44E-4D45-95C8-32B5F615FCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297220591"/>
+        <c:axId val="297239311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="295097023"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297222255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297222255"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="32"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Matrix Hierarchy Assembly Time (Milli-Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295097023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297239311"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>H-Matrix Construction Absolute Error (FP64)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297220591"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297220591"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Matrix Dimension (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="297239311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Hierarchical Matrix Storage Costs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H Stored FP64 numbers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1323647402995857E-2"/>
+                  <c:y val="-1.7899235759008637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{985506EE-8C38-4BAC-87F7-564CA6C0DBA0}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-892E-48BE-B18E-B1CAFFF4A59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>704512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1687552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4046848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8962048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19578880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42385408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-892E-48BE-B18E-B1CAFFF4A59D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>H2 Stored FP64 numbers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43339621574411336"/>
+                  <c:y val="0.40564422686956431"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{39C2C0A7-E977-4517-917E-EC90B1DA424B}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -22673"/>
+                        <a:gd name="adj2" fmla="val -204264"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-892E-48BE-B18E-B1CAFFF4A59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>692736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1520640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3177984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6494208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13128191.999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26397695.999999981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-892E-48BE-B18E-B1CAFFF4A59D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H2 Stored FP64 numbers after LU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21436642090304106"/>
+                  <c:y val="-9.9564498909485585E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{F0B8A42F-C38E-47A2-B82F-3742F5DB4465}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22238318138396801"/>
+                      <c:h val="2.842455014076269E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-892E-48BE-B18E-B1CAFFF4A59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$38:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>699468.99999999965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1547871.9999999967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3264797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6755925.9999999721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13936320.999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-892E-48BE-B18E-B1CAFFF4A59D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>O(n) Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$94:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-892E-48BE-B18E-B1CAFFF4A59D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446237247"/>
+        <c:axId val="344467663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446237247"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Matrix Dimension (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344467663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344467663"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Numbers stored as FP64</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446237247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Scheduler: Number of Instructions and Average Number of Communications</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number Instructions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41347444966478036"/>
+                  <c:y val="0.15125267543826776"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2F7556D7-5ECF-48C7-A5AF-229CD41B63CA}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 59710"/>
+                        <a:gd name="adj2" fmla="val 173622"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5D5C-4F1C-A116-842F569804D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D5C-4F1C-A116-842F569804D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446174047"/>
+        <c:axId val="344465999"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Communication Avg per Instruction</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8202411002996811E-2"/>
+                  <c:y val="-4.9548290229777373E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0B2B744B-1B23-484B-8216-2B18976B6E41}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22540957350011273"/>
+                      <c:h val="4.3561427610882268E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5D5C-4F1C-A116-842F569804D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88235300000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.868182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4772280000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3972249999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8439269999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9823430000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D5C-4F1C-A116-842F569804D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344438543"/>
+        <c:axId val="344445615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446174047"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Matrix Dimension (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344465999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344465999"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="32"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Number of Instructions</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446174047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344445615"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="512"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Average Number of Communications per Instruction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344438543"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344438543"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344445615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>GPU Utilization and Kernel Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU Utilization Percent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3058019902027069E-3"/>
+                  <c:y val="-1.9671700487878824E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{CB3C5334-1943-47F5-A784-227799F0C17E}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800"/>
+                      </a:pPr>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -13629"/>
+                        <a:gd name="adj2" fmla="val 123244"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8634-4C5A-BC06-2F5D26882F63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0519769999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1617040000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19641368000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26710307999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35726067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44699199000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8634-4C5A-BC06-2F5D26882F63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="570733487"/>
+        <c:axId val="444630255"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GFLOPS/S</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0281227862837898E-2"/>
+                  <c:y val="-5.5080761366060757E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF0E9518-B9FA-47C4-BB52-A9A6D34DEED3}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8634-4C5A-BC06-2F5D26882F63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$29:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.6515559999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.470950999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.485199000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.277083999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.250201000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.483222000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8634-4C5A-BC06-2F5D26882F63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="563589471"/>
+        <c:axId val="444621519"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="570733487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Matrix Dimension (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444630255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444630255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>GPU Utilization Percent</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570733487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444621519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Kernel GFLOPS / S</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563589471"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="563589471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444621519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3190,6 +7931,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -4148,20 +9049,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>640912</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>223350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4188,16 +11140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>430353</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>66672</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25538</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>19046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>604538</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>109046</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4219,6 +11171,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>102749</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>147149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899049F6-E225-49A1-AD64-F55011277F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>488153</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114653</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>123336</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45134AC7-966B-470B-B234-7FF8CDAED90D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654840</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>567090</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>51900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F37C9AA-15F8-491A-BD0B-1D762E252105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>577501</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>184617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>204001</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>36492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E070183D-272E-43D4-A3B9-64217493018F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4492,8 +11588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4819,7 +11915,7 @@
         <v>0.671875</v>
       </c>
       <c r="I11" s="1">
-        <f>H11*POWER(A2,2)</f>
+        <f t="shared" ref="I11:I16" si="4">H11*POWER(A2,2)</f>
         <v>704512</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -4854,7 +11950,7 @@
         <v>0.40234375</v>
       </c>
       <c r="I12" s="1">
-        <f>H12*POWER(A3,2)</f>
+        <f t="shared" si="4"/>
         <v>1687552</v>
       </c>
       <c r="J12" s="2">
@@ -4890,7 +11986,7 @@
         <v>0.2412109375</v>
       </c>
       <c r="I13" s="1">
-        <f>H13*POWER(A4,2)</f>
+        <f t="shared" si="4"/>
         <v>4046848</v>
       </c>
       <c r="J13" s="2">
@@ -4926,7 +12022,7 @@
         <v>0.133544921875</v>
       </c>
       <c r="I14" s="1">
-        <f>H14*POWER(A5,2)</f>
+        <f t="shared" si="4"/>
         <v>8962048</v>
       </c>
       <c r="J14" s="2">
@@ -4962,7 +12058,7 @@
         <v>7.293701171875E-2</v>
       </c>
       <c r="I15" s="1">
-        <f>H15*POWER(A6,2)</f>
+        <f t="shared" si="4"/>
         <v>19578880</v>
       </c>
       <c r="J15" s="2">
@@ -4998,7 +12094,7 @@
         <v>3.94744873046875E-2</v>
       </c>
       <c r="I16" s="1">
-        <f>H16*POWER(A7,2)</f>
+        <f t="shared" si="4"/>
         <v>42385408</v>
       </c>
       <c r="J16" s="2">
@@ -5060,7 +12156,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A25" si="4">POWER(B20, C20)*D20</f>
+        <f t="shared" ref="A20:A25" si="5">POWER(B20, C20)*D20</f>
         <v>1024</v>
       </c>
       <c r="B20" s="1">
@@ -5080,7 +12176,7 @@
         <v>51</v>
       </c>
       <c r="H20" s="1">
-        <v>4.0519769999999999</v>
+        <v>4.0519769999999997E-2</v>
       </c>
       <c r="I20" s="3">
         <v>0.88235300000000005</v>
@@ -5100,7 +12196,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
       <c r="B21" s="1">
@@ -5120,7 +12216,7 @@
         <v>220</v>
       </c>
       <c r="H21" s="1">
-        <v>8.1617040000000003</v>
+        <v>8.1617040000000002E-2</v>
       </c>
       <c r="I21" s="1">
         <v>1.868182</v>
@@ -5142,7 +12238,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="B22" s="1">
@@ -5162,7 +12258,7 @@
         <v>1010</v>
       </c>
       <c r="H22" s="1">
-        <v>19.641368</v>
+        <v>0.19641368000000001</v>
       </c>
       <c r="I22" s="1">
         <v>3.4772280000000002</v>
@@ -5184,7 +12280,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="B23" s="1">
@@ -5204,7 +12300,7 @@
         <v>2739</v>
       </c>
       <c r="H23" s="3">
-        <v>26.710308000000001</v>
+        <v>0.26710307999999999</v>
       </c>
       <c r="I23" s="1">
         <v>4.3972249999999997</v>
@@ -5226,7 +12322,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="B24" s="1">
@@ -5246,7 +12342,7 @@
         <v>7080</v>
       </c>
       <c r="H24" s="3">
-        <v>35.726067</v>
+        <v>0.35726067</v>
       </c>
       <c r="I24" s="1">
         <v>4.8439269999999999</v>
@@ -5268,7 +12364,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="B25" s="1">
@@ -5288,7 +12384,7 @@
         <v>17557</v>
       </c>
       <c r="H25" s="3">
-        <v>44.699199</v>
+        <v>0.44699199000000001</v>
       </c>
       <c r="I25" s="3">
         <v>4.9823430000000002</v>
@@ -5366,7 +12462,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" ref="A29:A34" si="5">POWER(B29, C29)*D29</f>
+        <f t="shared" ref="A29:A34" si="6">POWER(B29, C29)*D29</f>
         <v>1024</v>
       </c>
       <c r="B29" s="1">
@@ -5401,17 +12497,17 @@
         <v>640</v>
       </c>
       <c r="M29" s="1">
-        <f>K20+G29</f>
+        <f t="shared" ref="M29:M34" si="7">K20+G29</f>
         <v>36.779090000000004</v>
       </c>
       <c r="N29" s="1">
-        <f>M20+G29</f>
+        <f t="shared" ref="N29:N34" si="8">M20+G29</f>
         <v>35.982368000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="B30" s="1">
@@ -5447,17 +12543,17 @@
         <v>1860</v>
       </c>
       <c r="M30" s="1">
-        <f>K21+G30</f>
+        <f t="shared" si="7"/>
         <v>74.335999000000001</v>
       </c>
       <c r="N30" s="1">
-        <f>M21+G30</f>
+        <f t="shared" si="8"/>
         <v>73.041054000000003</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B31" s="1">
@@ -5492,17 +12588,17 @@
         <v>2010</v>
       </c>
       <c r="M31" s="1">
-        <f>K22+G31</f>
+        <f t="shared" si="7"/>
         <v>159.32601</v>
       </c>
       <c r="N31" s="1">
-        <f>M22+G31</f>
+        <f t="shared" si="8"/>
         <v>160.98133899999999</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8192</v>
       </c>
       <c r="B32" s="1">
@@ -5537,17 +12633,17 @@
         <v>2370</v>
       </c>
       <c r="M32" s="1">
-        <f>K23+G32</f>
+        <f t="shared" si="7"/>
         <v>356.31354500000003</v>
       </c>
       <c r="N32" s="1">
-        <f>M23+G32</f>
+        <f t="shared" si="8"/>
         <v>343.41473400000001</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
       <c r="B33" s="1">
@@ -5582,17 +12678,17 @@
         <v>3400</v>
       </c>
       <c r="M33" s="1">
-        <f>K24+G33</f>
+        <f t="shared" si="7"/>
         <v>869.03319299999998</v>
       </c>
       <c r="N33" s="1">
-        <f>M24+G33</f>
+        <f t="shared" si="8"/>
         <v>776.57318099999998</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32768</v>
       </c>
       <c r="B34" s="1">
@@ -5627,11 +12723,11 @@
         <v>5680</v>
       </c>
       <c r="M34" s="1">
-        <f>K25+G34</f>
+        <f t="shared" si="7"/>
         <v>2314.3076289999999</v>
       </c>
       <c r="N34" s="1">
-        <f>M25+G34</f>
+        <f t="shared" si="8"/>
         <v>1776.786621</v>
       </c>
     </row>
@@ -5684,10 +12780,13 @@
       <c r="M37" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="N37" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <f t="shared" ref="A38:A43" si="6">POWER(B38, C38)*D38</f>
+        <f t="shared" ref="A38:A43" si="9">POWER(B38, C38)*D38</f>
         <v>1024</v>
       </c>
       <c r="B38" s="1">
@@ -5721,10 +12820,14 @@
       <c r="M38" s="1">
         <v>0.66706562042236295</v>
       </c>
+      <c r="N38" s="1">
+        <f>M38*POWER(A2,2)</f>
+        <v>699468.99999999965</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2048</v>
       </c>
       <c r="B39" s="1">
@@ -5743,7 +12846,7 @@
         <v>0.362548828125</v>
       </c>
       <c r="I39" s="1">
-        <f>H39*POWER(A3,2)</f>
+        <f t="shared" ref="I39:I43" si="10">H39*POWER(A3,2)</f>
         <v>1520640</v>
       </c>
       <c r="J39" s="2">
@@ -5759,10 +12862,14 @@
       <c r="M39" s="1">
         <v>0.36904144287109297</v>
       </c>
+      <c r="N39" s="1">
+        <f t="shared" ref="N39:N43" si="11">M39*POWER(A3,2)</f>
+        <v>1547871.9999999967</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4096</v>
       </c>
       <c r="B40" s="1">
@@ -5781,7 +12888,7 @@
         <v>0.189422607421875</v>
       </c>
       <c r="I40" s="1">
-        <f>H40*POWER(A4,2)</f>
+        <f t="shared" si="10"/>
         <v>3177984</v>
       </c>
       <c r="J40" s="2">
@@ -5797,10 +12904,14 @@
       <c r="M40" s="1">
         <v>0.19459706544876099</v>
       </c>
+      <c r="N40" s="1">
+        <f t="shared" si="11"/>
+        <v>3264797</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8192</v>
       </c>
       <c r="B41" s="1">
@@ -5819,7 +12930,7 @@
         <v>9.6771240234375E-2</v>
       </c>
       <c r="I41" s="1">
-        <f>H41*POWER(A5,2)</f>
+        <f t="shared" si="10"/>
         <v>6494208</v>
       </c>
       <c r="J41" s="2">
@@ -5835,10 +12946,14 @@
       <c r="M41" s="1">
         <v>0.100671142339706</v>
       </c>
+      <c r="N41" s="1">
+        <f t="shared" si="11"/>
+        <v>6755925.9999999721</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16384</v>
       </c>
       <c r="B42" s="1">
@@ -5857,7 +12972,7 @@
         <v>4.8906326293945299E-2</v>
       </c>
       <c r="I42" s="1">
-        <f>H42*POWER(A6,2)</f>
+        <f t="shared" si="10"/>
         <v>13128191.999999996</v>
       </c>
       <c r="J42" s="2">
@@ -5873,10 +12988,14 @@
       <c r="M42" s="1">
         <v>5.1916841417550999E-2</v>
       </c>
+      <c r="N42" s="1">
+        <f t="shared" si="11"/>
+        <v>13936320.999999989</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32768</v>
       </c>
       <c r="B43" s="1">
@@ -5895,7 +13014,7 @@
         <v>2.4584770202636701E-2</v>
       </c>
       <c r="I43" s="1">
-        <f>H43*POWER(A7,2)</f>
+        <f t="shared" si="10"/>
         <v>26397695.999999981</v>
       </c>
       <c r="J43" s="2">
@@ -5907,6 +13026,10 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
+      <c r="N43" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
@@ -5927,133 +13050,133 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <f>(A2) / ($A$2)</f>
+        <f t="shared" ref="A62:A67" si="12">(A2) / ($A$2)</f>
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <f>(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
+        <f t="shared" ref="B62:B67" si="13">(LN(A2) * A2) / (LN($A$2) * $A$2)</f>
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <f>(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" ref="C62:C67" si="14">(LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <f>(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" ref="D62:D67" si="15">(LN(A2)*LN(A2)*LN(A2)*A2) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <f>(A2*A2) / ($A$2*$A$2)</f>
+        <f t="shared" ref="E62:E67" si="16">(A2*A2) / ($A$2*$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <f>(A3) / ($A$2)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="B63" s="1">
-        <f>(LN(A3) * A3) / (LN($A$2) * $A$2)</f>
+        <f t="shared" si="13"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="C63" s="1">
-        <f>(LN(A3)*LN(A3)*A3) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="14"/>
         <v>2.4200000000000004</v>
       </c>
       <c r="D63" s="1">
-        <f>(LN(A3)*LN(A3)*LN(A3)*A3) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="15"/>
         <v>2.6620000000000004</v>
       </c>
       <c r="E63" s="1">
-        <f>(A3*A3) / ($A$2*$A$2)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <f>(A4) / ($A$2)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B64" s="1">
-        <f>(LN(A4) * A4) / (LN($A$2) * $A$2)</f>
+        <f t="shared" si="13"/>
         <v>4.8</v>
       </c>
       <c r="C64" s="1">
-        <f>(LN(A4)*LN(A4)*A4) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="14"/>
         <v>5.7599999999999989</v>
       </c>
       <c r="D64" s="1">
-        <f>(LN(A4)*LN(A4)*LN(A4)*A4) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="15"/>
         <v>6.9119999999999973</v>
       </c>
       <c r="E64" s="1">
-        <f>(A4*A4) / ($A$2*$A$2)</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <f>(A5) / ($A$2)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B65" s="1">
-        <f>(LN(A5) * A5) / (LN($A$2) * $A$2)</f>
+        <f t="shared" si="13"/>
         <v>10.399999999999999</v>
       </c>
       <c r="C65" s="1">
-        <f>(LN(A5)*LN(A5)*A5) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="14"/>
         <v>13.519999999999998</v>
       </c>
       <c r="D65" s="1">
-        <f>(LN(A5)*LN(A5)*LN(A5)*A5) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="15"/>
         <v>17.575999999999993</v>
       </c>
       <c r="E65" s="1">
-        <f>(A5*A5) / ($A$2*$A$2)</f>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <f>(A6) / ($A$2)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="B66" s="1">
-        <f>(LN(A6) * A6) / (LN($A$2) * $A$2)</f>
+        <f t="shared" si="13"/>
         <v>22.4</v>
       </c>
       <c r="C66" s="1">
-        <f>(LN(A6)*LN(A6)*A6) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="14"/>
         <v>31.359999999999996</v>
       </c>
       <c r="D66" s="1">
-        <f>(LN(A6)*LN(A6)*LN(A6)*A6) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="15"/>
         <v>43.903999999999996</v>
       </c>
       <c r="E66" s="1">
-        <f>(A6*A6) / ($A$2*$A$2)</f>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <f>(A7) / ($A$2)</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="B67" s="1">
-        <f>(LN(A7) * A7) / (LN($A$2) * $A$2)</f>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="C67" s="1">
-        <f>(LN(A7)*LN(A7)*A7) / (LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="D67" s="1">
-        <f>(LN(A7)*LN(A7)*LN(A7)*A7) / (LN($A$2)*LN($A$2)*LN($A$2)*$A$2)</f>
+        <f t="shared" si="15"/>
         <v>107.99999999999999</v>
       </c>
       <c r="E67" s="1">
-        <f>(A7*A7) / ($A$2*$A$2)</f>
+        <f t="shared" si="16"/>
         <v>1024</v>
       </c>
     </row>
@@ -6087,91 +13210,91 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <f t="shared" ref="A71:D75" si="7">B63/B62</f>
+        <f t="shared" ref="A71:D75" si="17">B63/B62</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.4200000000000004</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.6620000000000004</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1818181818181817</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.3801652892561975</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.5965439519158515</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.3472222222222223</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.542824074074074</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1538461538461542</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.3195266272189348</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.4979517523896231</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.295918367346939</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.4599125364431487</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E75" s="4"/>
@@ -6196,113 +13319,113 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
-        <f t="shared" ref="A78:D83" si="8">B62*$H$2</f>
+        <f t="shared" ref="A78:D83" si="18">B62*$H$2</f>
         <v>302651904</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>302651904</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>302651904</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>302651904</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>665834188.80000007</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>732417607.68000007</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>805659368.44800007</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1210607616</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1452729139.2</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1743274967.0399997</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2091929960.4479992</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4842430464</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3147579801.5999994</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4091853742.0799994</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5319409864.7039976</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>19369721856</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6779402649.5999994</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9491163709.4399986</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>13287629193.216</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>77478887424</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>14527291392</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>21790937088</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>32686405631.999996</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>309915549696</v>
       </c>
     </row>
@@ -6340,91 +13463,91 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
-        <f t="shared" ref="A87:A91" si="9">A63*$G$29</f>
+        <f t="shared" ref="A87:A91" si="19">A63*$G$29</f>
         <v>69.964736000000002</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87:D91" si="10">B63*$G$29</f>
+        <f t="shared" ref="B87:D91" si="20">B63*$G$29</f>
         <v>76.961209600000004</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>84.65733056000002</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>93.12306361600001</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>139.929472</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>167.91536640000001</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>201.49843967999996</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>241.7981276159999</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>279.85894400000001</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>363.81662719999997</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>472.96161535999994</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>614.85009996799977</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>559.71788800000002</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>783.60504319999995</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1097.0470604799998</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1535.865884672</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1119.435776</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1679.1536639999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2518.7304960000001</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3778.0957439999997</v>
       </c>
       <c r="E91" s="5"/>
@@ -6436,6 +13559,12 @@
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -6443,39 +13572,87 @@
         <f>C62*36</f>
         <v>36</v>
       </c>
+      <c r="B94" s="1">
+        <f>E62*80</f>
+        <v>80</v>
+      </c>
+      <c r="C94" s="1">
+        <f>A62*900000</f>
+        <v>900000</v>
+      </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
-        <f t="shared" ref="A95:A99" si="11">C63*36</f>
+        <f t="shared" ref="A95:A99" si="21">C63*36</f>
         <v>87.120000000000019</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" ref="B95:B99" si="22">E63*80</f>
+        <v>320</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" ref="C95:C99" si="23">A63*900000</f>
+        <v>1800000</v>
       </c>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>207.35999999999996</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="22"/>
+        <v>1280</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="23"/>
+        <v>3600000</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>486.71999999999991</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="22"/>
+        <v>5120</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="23"/>
+        <v>7200000</v>
       </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1128.9599999999998</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="22"/>
+        <v>20480</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="23"/>
+        <v>14400000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2592</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="22"/>
+        <v>81920</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="23"/>
+        <v>28800000</v>
       </c>
       <c r="E99" s="5"/>
     </row>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923C0A6-822B-4902-B1C1-4796D3BE55F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA887E9-A8D5-4C3D-AC56-15FDA2CA9C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -323,10 +323,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
+              <a:rPr lang="en-US" sz="4000"/>
               <a:t># Floating Point Instructions &amp; Accuracy of H-LU factorization</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" sz="2800"/>
+            <a:endParaRPr lang="zh-CN" sz="4000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -343,7 +343,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -385,8 +385,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.33567971149433273"/>
-                  <c:y val="0.10969128507108032"/>
+                  <c:x val="-0.19017597991257829"/>
+                  <c:y val="1.2230748104144474E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -427,7 +427,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -452,8 +452,8 @@
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val -3939"/>
-                        <a:gd name="adj2" fmla="val 199388"/>
+                        <a:gd name="adj1" fmla="val 13254"/>
+                        <a:gd name="adj2" fmla="val 153391"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
@@ -481,7 +481,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -786,7 +786,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -837,7 +837,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -997,7 +997,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk2">
                         <a:lumMod val="75000"/>
@@ -1128,7 +1128,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1138,14 +1138,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
                   <a:t>Number Floating</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" baseline="0"/>
                   <a:t> Point Operations (FLOPS)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1162,7 +1162,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -1196,7 +1196,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1242,7 +1242,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1252,10 +1252,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
                   <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1272,7 +1272,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -1306,7 +1306,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1339,7 +1339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1349,10 +1349,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
                   <a:t>Accuracy | A - LU | (FP64)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1369,7 +1369,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -1403,7 +1403,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1458,7 +1458,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1536,7 +1536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1546,10 +1546,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
+              <a:rPr lang="en-US" sz="4000"/>
               <a:t>Pastel-Palettes (CPU + GPU) vs. HLIBpro (CPU only). H-LU Factorization Time</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" sz="2800"/>
+            <a:endParaRPr lang="zh-CN" sz="4000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1566,7 +1566,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1644,8 +1644,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5494982406789241E-3"/>
-                  <c:y val="-2.2634969471307737E-2"/>
+                  <c:x val="-4.4792501366060729E-2"/>
+                  <c:y val="-3.1298149408525988E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1667,7 +1667,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -1718,7 +1718,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1862,19 +1862,38 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.7986619751437974E-3"/>
-                  <c:y val="3.0179959295076893E-2"/>
+                  <c:x val="-9.9107482353932519E-2"/>
+                  <c:y val="0.19911163355365849"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="25000"/>
                       <a:lumOff val="75000"/>
                     </a:sysClr>
                   </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1885,7 +1904,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -1909,7 +1928,10 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -35837"/>
+                        <a:gd name="adj2" fmla="val -210910"/>
+                      </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
                     <a:ln>
@@ -1936,7 +1958,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2080,19 +2102,38 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1047825709608796E-2"/>
-                  <c:y val="3.1688957259830793E-2"/>
+                  <c:x val="-0.18784263547130742"/>
+                  <c:y val="0.16271927139387737"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="25000"/>
                       <a:lumOff val="75000"/>
                     </a:sysClr>
                   </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -2103,7 +2144,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -2127,7 +2168,10 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 39866"/>
+                        <a:gd name="adj2" fmla="val -230795"/>
+                      </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
                     <a:ln>
@@ -2154,7 +2198,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2348,8 +2392,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4983274689298706E-3"/>
-                  <c:y val="-2.5652965400815405E-2"/>
+                  <c:x val="-2.4143872142013401E-2"/>
+                  <c:y val="-2.9984520564695003E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2371,7 +2415,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -2429,7 +2473,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk2">
                         <a:lumMod val="75000"/>
@@ -2585,19 +2629,38 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0989964813579723E-3"/>
-                  <c:y val="4.2251943013107723E-2"/>
+                  <c:x val="-0.55112904587888234"/>
+                  <c:y val="5.7412470077554068E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="25000"/>
                       <a:lumOff val="75000"/>
                     </a:sysClr>
                   </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -2608,7 +2671,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk2">
                           <a:lumMod val="75000"/>
@@ -2632,7 +2695,10 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -32512"/>
+                        <a:gd name="adj2" fmla="val 176131"/>
+                      </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
                     <a:ln>
@@ -2659,7 +2725,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2874,7 +2940,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2884,14 +2950,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
                   <a:t>Matrix</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" baseline="0"/>
                   <a:t> Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2908,7 +2974,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -2942,7 +3008,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2988,7 +3054,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -2998,14 +3064,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" baseline="0"/>
                   <a:t>Factorization </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
                   <a:t>Time (Milli-Seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3022,7 +3088,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -3056,7 +3122,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -3095,7 +3161,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -3173,7 +3239,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -3183,7 +3249,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -3193,7 +3259,7 @@
               </a:rPr>
               <a:t>Hierarchical Matrix Construction Time &amp; Error</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -3217,7 +3283,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -3259,24 +3325,96 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.9784959754122188E-2"/>
-                  <c:y val="0.11436718424713099"/>
+                  <c:x val="-0.13729431320724184"/>
+                  <c:y val="0.18258961875179008"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{0352184A-535F-4204-9B0A-823DA8B0C146}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-                      <a:pPr/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                      <a:pPr>
+                        <a:defRPr sz="2400"/>
+                      </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="ja-JP" altLang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:round/>
+                  <a:headEnd type="none" w="med" len="med"/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:extLst>
+                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
+                        <a:custGeom>
+                          <a:avLst/>
+                          <a:gdLst/>
+                          <a:ahLst/>
+                          <a:cxnLst/>
+                          <a:rect l="0" t="0" r="0" b="0"/>
+                          <a:pathLst/>
+                        </a:custGeom>
+                        <ask:type/>
+                      </ask:lineSketchStyleProps>
+                    </a:ext>
+                  </a:extLst>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -3285,6 +3423,18 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -51652"/>
+                        <a:gd name="adj2" fmla="val -151022"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3314,7 +3464,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -3440,18 +3590,69 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr algn="ctr">
+                      <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{AC6C6DA7-F92A-4F1F-B659-9563F3D2E270}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-                      <a:pPr/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                      <a:pPr algn="ctr">
+                        <a:defRPr lang="en-US" altLang="ja-JP" sz="2400">
+                          <a:solidFill>
+                            <a:schemeClr val="tx2"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="ja-JP" altLang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -3460,6 +3661,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3489,7 +3699,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -3714,7 +3924,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -3727,9 +3937,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{603CC12F-9701-4D40-9F0B-E6FEF675533A}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -3758,7 +3968,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -3819,7 +4029,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -3951,7 +4161,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -3964,9 +4174,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{29C62368-3A3D-4EDB-858E-04F3B3018089}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -3995,7 +4205,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -4056,7 +4266,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -4209,7 +4419,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -4255,7 +4465,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4265,7 +4475,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4275,7 +4485,7 @@
                   </a:rPr>
                   <a:t>Matrix Hierarchy Assembly Time (Milli-Seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4299,7 +4509,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4334,7 +4544,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -4365,7 +4575,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4375,7 +4585,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4385,7 +4595,7 @@
                   </a:rPr>
                   <a:t>H-Matrix Construction Absolute Error (FP64)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4409,7 +4619,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4444,7 +4654,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -4475,7 +4685,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4485,7 +4695,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -4495,7 +4705,7 @@
                   </a:rPr>
                   <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4519,7 +4729,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -4563,7 +4773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -4641,7 +4851,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -4651,7 +4861,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -4661,7 +4871,7 @@
               </a:rPr>
               <a:t>Hierarchical Matrix Storage Costs</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -4685,7 +4895,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -4739,7 +4949,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -4752,9 +4962,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{985506EE-8C38-4BAC-87F7-564CA6C0DBA0}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -4783,7 +4993,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -4844,7 +5054,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -4976,7 +5186,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -4989,9 +5199,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{39C2C0A7-E977-4517-917E-EC90B1DA424B}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -5039,7 +5249,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -5065,8 +5275,8 @@
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val -22673"/>
-                        <a:gd name="adj2" fmla="val -204264"/>
+                        <a:gd name="adj1" fmla="val -23764"/>
+                        <a:gd name="adj2" fmla="val -145721"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
@@ -5103,7 +5313,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -5235,7 +5445,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -5248,9 +5458,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{F0B8A42F-C38E-47A2-B82F-3742F5DB4465}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -5279,7 +5489,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -5346,7 +5556,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -5560,7 +5770,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -5570,7 +5780,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -5580,7 +5790,7 @@
                   </a:rPr>
                   <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -5604,7 +5814,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -5639,7 +5849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -5685,7 +5895,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -5695,7 +5905,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -5705,7 +5915,7 @@
                   </a:rPr>
                   <a:t>Numbers stored as FP64</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -5729,7 +5939,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -5764,7 +5974,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -5803,7 +6013,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -5881,7 +6091,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -5891,7 +6101,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -5901,7 +6111,7 @@
               </a:rPr>
               <a:t>Scheduler: Number of Instructions and Average Number of Communications</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -5925,7 +6135,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="ja-JP" altLang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" altLang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -5967,8 +6177,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.41347444966478036"/>
-                  <c:y val="0.15125267543826776"/>
+                  <c:x val="-0.42088064814814807"/>
+                  <c:y val="0.15015026041666665"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5979,7 +6189,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -5992,9 +6202,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{2F7556D7-5ECF-48C7-A5AF-229CD41B63CA}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -6003,6 +6213,10 @@
                 </c:rich>
               </c:tx>
               <c:spPr>
+                <a:xfrm>
+                  <a:off x="6410673" y="3903664"/>
+                  <a:ext cx="2986104" cy="409916"/>
+                </a:xfrm>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
                 </a:solidFill>
@@ -6042,7 +6256,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -6068,8 +6282,8 @@
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:prstGeom prst="wedgeRectCallout">
                       <a:avLst>
-                        <a:gd name="adj1" fmla="val 59710"/>
-                        <a:gd name="adj2" fmla="val 173622"/>
+                        <a:gd name="adj1" fmla="val 50431"/>
+                        <a:gd name="adj2" fmla="val 165172"/>
                       </a:avLst>
                     </a:prstGeom>
                     <a:noFill/>
@@ -6077,6 +6291,12 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18403232340263567"/>
+                      <c:h val="3.4939584717432796E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -6106,7 +6326,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -6240,8 +6460,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8202411002996811E-2"/>
-                  <c:y val="-4.9548290229777373E-2"/>
+                  <c:x val="-8.2115856567527609E-2"/>
+                  <c:y val="-4.4135822357508618E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6252,7 +6472,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -6265,9 +6485,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{0B2B744B-1B23-484B-8216-2B18976B6E41}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -6296,7 +6516,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -6330,8 +6550,8 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.22540957350011273"/>
-                      <c:h val="4.3561427610882268E-2"/>
+                      <c:w val="0.28332907164850535"/>
+                      <c:h val="4.3561417738678374E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -6363,7 +6583,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -6501,7 +6721,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6511,7 +6731,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6521,7 +6741,7 @@
                   </a:rPr>
                   <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -6545,7 +6765,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -6580,7 +6800,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -6626,7 +6846,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6636,7 +6856,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6646,7 +6866,7 @@
                   </a:rPr>
                   <a:t>Number of Instructions</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -6670,7 +6890,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -6705,7 +6925,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -6737,7 +6957,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6747,7 +6967,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -6773,7 +6993,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -6808,7 +7028,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -6863,7 +7083,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -6941,7 +7161,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -6951,7 +7171,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="44546A"/>
                 </a:solidFill>
@@ -6977,7 +7197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="44546A"/>
               </a:solidFill>
@@ -7030,7 +7250,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="dk1">
                             <a:lumMod val="65000"/>
@@ -7043,9 +7263,9 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{CB3C5334-1943-47F5-A784-227799F0C17E}" type="SERIESNAME">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="1800"/>
+                        <a:defRPr sz="2400"/>
                       </a:pPr>
                       <a:t>[系列名称]</a:t>
                     </a:fld>
@@ -7093,7 +7313,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -7157,7 +7377,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -7347,7 +7567,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -7444,7 +7664,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7454,7 +7674,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7464,7 +7684,7 @@
                   </a:rPr>
                   <a:t>Matrix Dimension (N)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -7488,7 +7708,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -7523,7 +7743,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -7570,7 +7790,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7580,7 +7800,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7590,7 +7810,7 @@
                   </a:rPr>
                   <a:t>GPU Utilization Percent</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -7614,7 +7834,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -7643,7 +7863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -7673,7 +7893,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7683,7 +7903,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="44546A"/>
                     </a:solidFill>
@@ -7709,7 +7929,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" altLang="en-US" sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="44546A"/>
                   </a:solidFill>
@@ -7738,7 +7958,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -7794,7 +8014,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -11588,8 +11808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X98" sqref="X98"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/docs/SC/pspl results.xlsx
+++ b/docs/SC/pspl results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA887E9-A8D5-4C3D-AC56-15FDA2CA9C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED240B9A-23C0-49E1-A857-3A6A19C8EFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,6 +726,193 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Number FLOPS Dense-LU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23080077012711844"/>
+                  <c:y val="-6.6927061535744193E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{05214EEB-3C5A-4D5D-A5EB-C603EAB55E86}" type="SERIESNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                      <a:pPr/>
+                      <a:t>[系列名称]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-623C-41DE-88EA-3E34DC003CBE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>715303424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5724525568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45804595200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366470320128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2931896786944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23455711182848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-623C-41DE-88EA-3E34DC003CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1103,6 +1290,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="550000000000"/>
           <c:min val="134217728"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11808,8 +11996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
